--- a/teaching/traditional_assets/database/data/norway/norway_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/norway/norway_financial_svcs_non_bank_insurance.xlsx
@@ -590,119 +590,122 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="F2">
-        <v>0.2335</v>
+      <c r="D2">
+        <v>0.0626</v>
+      </c>
+      <c r="E2">
+        <v>0.0693</v>
       </c>
       <c r="G2">
-        <v>0.09321428923898849</v>
+        <v>0.1605174750987211</v>
       </c>
       <c r="H2">
-        <v>0.09097727788615587</v>
+        <v>0.1579536747804562</v>
       </c>
       <c r="I2">
-        <v>0.1454739456748271</v>
+        <v>0.0654211115695173</v>
       </c>
       <c r="J2">
-        <v>0.1173556206767037</v>
+        <v>0.05551870390092661</v>
       </c>
       <c r="K2">
-        <v>29.71</v>
+        <v>21.18</v>
       </c>
       <c r="L2">
-        <v>0.04886882889165957</v>
+        <v>0.03120763835681028</v>
       </c>
       <c r="M2">
-        <v>22.25939</v>
+        <v>5.01086</v>
       </c>
       <c r="N2">
-        <v>0.0235009449201305</v>
+        <v>0.005558358291735996</v>
       </c>
       <c r="O2">
-        <v>0.7492221474251094</v>
+        <v>0.2365845136921624</v>
       </c>
       <c r="P2">
-        <v>22.25939</v>
+        <v>4.95986</v>
       </c>
       <c r="Q2">
-        <v>0.0235009449201305</v>
+        <v>0.005501785912368275</v>
       </c>
       <c r="R2">
-        <v>0.7492221474251094</v>
+        <v>0.234176581680831</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.051</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.01017789361506807</v>
       </c>
       <c r="U2">
-        <v>136.57</v>
+        <v>103.753</v>
       </c>
       <c r="V2">
-        <v>0.1441874214766093</v>
+        <v>0.1150892956184138</v>
       </c>
       <c r="W2">
-        <v>0.04724978467934119</v>
+        <v>0.06986505322434941</v>
       </c>
       <c r="X2">
-        <v>0.04480274987287156</v>
+        <v>0.03911320748566795</v>
       </c>
       <c r="Y2">
-        <v>0.002447034806469628</v>
+        <v>0.03075184573868146</v>
       </c>
       <c r="Z2">
-        <v>0.2451014636709814</v>
+        <v>0.1895512750331242</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.03138795536915368</v>
+        <v>0.02025057688989229</v>
       </c>
       <c r="AC2">
-        <v>-0.03101496602484769</v>
+        <v>-0.0201285154436341</v>
       </c>
       <c r="AD2">
-        <v>2583.7</v>
+        <v>2921.6</v>
       </c>
       <c r="AE2">
-        <v>25.03766415603093</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>2608.737664156031</v>
+        <v>2921.6</v>
       </c>
       <c r="AG2">
-        <v>2472.167664156031</v>
+        <v>2817.847</v>
       </c>
       <c r="AH2">
-        <v>0.7336348157890641</v>
+        <v>0.7641965943867542</v>
       </c>
       <c r="AI2">
-        <v>0.7221543751580574</v>
+        <v>0.712029635406512</v>
       </c>
       <c r="AJ2">
-        <v>0.7229960615095371</v>
+        <v>0.7576187432901528</v>
       </c>
       <c r="AK2">
-        <v>0.7112375680034106</v>
+        <v>0.7045591553032207</v>
       </c>
       <c r="AL2">
-        <v>64.2</v>
+        <v>72.59</v>
       </c>
       <c r="AM2">
-        <v>59.072</v>
+        <v>67.521</v>
       </c>
       <c r="AN2">
-        <v>25.13253504275167</v>
+        <v>51.07692307692307</v>
       </c>
       <c r="AO2">
-        <v>1.303426791277259</v>
+        <v>0.6116544978647196</v>
       </c>
       <c r="AP2">
-        <v>24.04762180243797</v>
+        <v>49.26305944055943</v>
       </c>
       <c r="AQ2">
-        <v>1.416576381365114</v>
+        <v>0.6575731994490602</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Axactor SE (OB:AXA)</t>
+          <t>Infront ASA (OB:INFRO)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,112 +725,115 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.1693574958813839</v>
+        <v>0.08827067669172932</v>
       </c>
       <c r="H3">
-        <v>0.1693574958813839</v>
+        <v>0.07518796992481203</v>
       </c>
       <c r="I3">
-        <v>0.2879682048941204</v>
+        <v>0.08947368421052632</v>
       </c>
       <c r="J3">
-        <v>0.1681305047207908</v>
+        <v>0.08947368421052632</v>
       </c>
       <c r="K3">
-        <v>16.9</v>
+        <v>-9.24</v>
       </c>
       <c r="L3">
-        <v>0.0556836902800659</v>
+        <v>-0.06947368421052631</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>0.102</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.0005752961082910321</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>-0.01103896103896104</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>0.102</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.0005752961082910321</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>-0.01103896103896104</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>65.90000000000001</v>
+        <v>19.5</v>
       </c>
       <c r="V3">
-        <v>0.1960142772159429</v>
+        <v>0.1099830795262267</v>
       </c>
       <c r="W3">
-        <v>0.05575717584955459</v>
+        <v>-0.2610169491525424</v>
       </c>
       <c r="X3">
-        <v>0.04443305921243255</v>
+        <v>0.02202895262419433</v>
       </c>
       <c r="Y3">
-        <v>0.01132411663712204</v>
+        <v>-0.2830459017767367</v>
       </c>
       <c r="Z3">
-        <v>0.451496988349161</v>
+        <v>0.8542068079640333</v>
       </c>
       <c r="AA3">
-        <v>0.07591041653106145</v>
+        <v>0.07642903018625562</v>
       </c>
       <c r="AB3">
-        <v>0.03125553784157492</v>
+        <v>0.01884388895845857</v>
       </c>
       <c r="AC3">
-        <v>0.04465487868948653</v>
+        <v>0.05758514122779705</v>
       </c>
       <c r="AD3">
-        <v>959.6</v>
+        <v>146</v>
       </c>
       <c r="AE3">
-        <v>7.808249073172181</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>967.4082490731722</v>
+        <v>146</v>
       </c>
       <c r="AG3">
-        <v>901.5082490731722</v>
+        <v>126.5</v>
       </c>
       <c r="AH3">
-        <v>0.7421004352810529</v>
+        <v>0.4515929477265697</v>
       </c>
       <c r="AI3">
-        <v>0.7050524255113505</v>
+        <v>0.8138238573021181</v>
       </c>
       <c r="AJ3">
-        <v>0.7283689429623215</v>
+        <v>0.4163923633969717</v>
       </c>
       <c r="AK3">
-        <v>0.6901719153227234</v>
+        <v>0.791119449656035</v>
       </c>
       <c r="AL3">
-        <v>53.3</v>
+        <v>6.59</v>
       </c>
       <c r="AM3">
-        <v>53.182</v>
+        <v>6.547</v>
       </c>
       <c r="AN3">
-        <v>10.08406893652795</v>
+        <v>6.854460093896713</v>
       </c>
       <c r="AO3">
-        <v>1.613508442776735</v>
+        <v>1.805766312594841</v>
       </c>
       <c r="AP3">
-        <v>9.473604971344811</v>
+        <v>5.938967136150235</v>
       </c>
       <c r="AQ3">
-        <v>1.617088488586364</v>
+        <v>1.817626393768138</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +844,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MyBank ASA (OTCNO:MYBANK)</t>
+          <t>Axactor SE (OB:AXA)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -847,22 +853,22 @@
         </is>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.3739899961523663</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.3739899961523663</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.1250480954213159</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1250480954213159</v>
       </c>
       <c r="K4">
-        <v>-3.8</v>
+        <v>-14.9</v>
       </c>
       <c r="L4">
-        <v>-9.405940594059405</v>
+        <v>-0.05732974220854176</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -886,61 +892,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>3.32</v>
+        <v>38.8</v>
       </c>
       <c r="V4">
-        <v>0.4695898161244695</v>
+        <v>0.1378820184790334</v>
       </c>
       <c r="W4">
-        <v>-0.1576763485477178</v>
+        <v>-0.050236008091706</v>
       </c>
       <c r="X4">
-        <v>0.02697733977922131</v>
+        <v>0.04052813835448431</v>
       </c>
       <c r="Y4">
-        <v>-0.1846536883269392</v>
+        <v>-0.0907641464461903</v>
       </c>
       <c r="Z4">
-        <v>0.01676348547717842</v>
+        <v>0.2301018149623727</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.02877379371403276</v>
       </c>
       <c r="AB4">
-        <v>0.02697733977922131</v>
+        <v>0.02430223063087752</v>
       </c>
       <c r="AC4">
-        <v>-0.02697733977922131</v>
+        <v>0.004471563083155241</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1092.8</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1092.8</v>
       </c>
       <c r="AG4">
-        <v>-3.32</v>
+        <v>1054</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.795226313491486</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.7183802261372602</v>
       </c>
       <c r="AJ4">
-        <v>-0.8853333333333332</v>
+        <v>0.7892766212370824</v>
       </c>
       <c r="AK4">
-        <v>-0.1816192560175054</v>
+        <v>0.7110091743119266</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>65.994</v>
+      </c>
+      <c r="AN4">
+        <v>30.44011142061281</v>
+      </c>
+      <c r="AO4">
+        <v>0.4924242424242424</v>
+      </c>
+      <c r="AP4">
+        <v>29.35933147632312</v>
+      </c>
+      <c r="AQ4">
+        <v>0.4924690123344547</v>
       </c>
     </row>
     <row r="5">
@@ -951,7 +969,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sunndal Sparebank (OB:SUNSB-ME)</t>
+          <t>Sunndal Sparebank (OB:SUNSB)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -972,28 +990,28 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3.67</v>
+        <v>3.99</v>
       </c>
       <c r="L5">
-        <v>0.3598039215686274</v>
+        <v>0.387378640776699</v>
       </c>
       <c r="M5">
-        <v>1.12336</v>
+        <v>1.12608</v>
       </c>
       <c r="N5">
-        <v>0.064192</v>
+        <v>0.05687272727272727</v>
       </c>
       <c r="O5">
-        <v>0.3060926430517711</v>
+        <v>0.2822255639097744</v>
       </c>
       <c r="P5">
-        <v>1.12336</v>
+        <v>1.12608</v>
       </c>
       <c r="Q5">
-        <v>0.064192</v>
+        <v>0.05687272727272727</v>
       </c>
       <c r="R5">
-        <v>0.3060926430517711</v>
+        <v>0.2822255639097744</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1002,55 +1020,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>7.77</v>
+        <v>0.342</v>
       </c>
       <c r="V5">
-        <v>0.444</v>
+        <v>0.01727272727272727</v>
       </c>
       <c r="W5">
-        <v>0.07808510638297872</v>
+        <v>0.07702702702702703</v>
       </c>
       <c r="X5">
-        <v>0.06171138365263963</v>
+        <v>0.03701925376761897</v>
       </c>
       <c r="Y5">
-        <v>0.01637372273033909</v>
+        <v>0.04000777325940806</v>
       </c>
       <c r="Z5">
-        <v>0.07789827401863449</v>
+        <v>0.07469722242367104</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.02790100606560062</v>
+        <v>0.02009872798824948</v>
       </c>
       <c r="AC5">
-        <v>-0.02790100606560062</v>
+        <v>-0.02009872798824948</v>
       </c>
       <c r="AD5">
-        <v>100.2</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>100.2</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="AG5">
-        <v>92.43000000000001</v>
+        <v>65.05800000000001</v>
       </c>
       <c r="AH5">
-        <v>0.8513169073916738</v>
+        <v>0.767605633802817</v>
       </c>
       <c r="AI5">
-        <v>0.6684456304202802</v>
+        <v>0.5528317836010144</v>
       </c>
       <c r="AJ5">
-        <v>0.8408077867734013</v>
+        <v>0.7666690235452167</v>
       </c>
       <c r="AK5">
-        <v>0.6503201294589461</v>
+        <v>0.5515352922226556</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1067,7 +1085,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tysnes Sparebank (OB:TYSB-ME)</t>
+          <t>Tysnes Sparebank (OB:TYSB)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1088,28 +1106,28 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.1</v>
+        <v>2.66</v>
       </c>
       <c r="L6">
-        <v>0.3949044585987261</v>
+        <v>0.3604336043360434</v>
       </c>
       <c r="M6">
-        <v>0.8360300000000001</v>
+        <v>0.72178</v>
       </c>
       <c r="N6">
-        <v>0.05648851351351351</v>
+        <v>0.03520878048780487</v>
       </c>
       <c r="O6">
-        <v>0.2696870967741936</v>
+        <v>0.2713458646616541</v>
       </c>
       <c r="P6">
-        <v>0.8360300000000001</v>
+        <v>0.72178</v>
       </c>
       <c r="Q6">
-        <v>0.05648851351351351</v>
+        <v>0.03520878048780487</v>
       </c>
       <c r="R6">
-        <v>0.2696870967741936</v>
+        <v>0.2713458646616541</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1118,55 +1136,55 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>9.68</v>
+        <v>0.471</v>
       </c>
       <c r="V6">
-        <v>0.654054054054054</v>
+        <v>0.02297560975609756</v>
       </c>
       <c r="W6">
-        <v>0.09717868338557994</v>
+        <v>0.07492957746478873</v>
       </c>
       <c r="X6">
-        <v>0.0544807458173892</v>
+        <v>0.0388145933354861</v>
       </c>
       <c r="Y6">
-        <v>0.04269793756819075</v>
+        <v>0.03611498412930263</v>
       </c>
       <c r="Z6">
-        <v>0.08392131708360061</v>
+        <v>0.07942315970727508</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.03412892598409475</v>
+        <v>0.02015830289901872</v>
       </c>
       <c r="AC6">
-        <v>-0.03412892598409475</v>
+        <v>-0.02015830289901872</v>
       </c>
       <c r="AD6">
-        <v>67.09999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>67.09999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="AG6">
-        <v>57.41999999999999</v>
+        <v>73.32899999999999</v>
       </c>
       <c r="AH6">
-        <v>0.8192918192918193</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="AI6">
-        <v>0.6539961013645224</v>
+        <v>0.6589285714285714</v>
       </c>
       <c r="AJ6">
-        <v>0.7950706175574632</v>
+        <v>0.7815174413027955</v>
       </c>
       <c r="AK6">
-        <v>0.6179509255273353</v>
+        <v>0.6574881869289602</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1183,7 +1201,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B2Holding ASA (OB:B2H)</t>
+          <t>Melhus Sparebank (OB:MELG)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1191,8 +1209,11 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="F7">
-        <v>0.274</v>
+      <c r="D7">
+        <v>0.0626</v>
+      </c>
+      <c r="E7">
+        <v>0.0693</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1201,34 +1222,34 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.01140522011942548</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.008224670055932868</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>19.1</v>
+        <v>9.27</v>
       </c>
       <c r="L7">
-        <v>0.08388230127360563</v>
+        <v>0.4138392857142857</v>
       </c>
       <c r="M7">
-        <v>20.3</v>
+        <v>2.96</v>
       </c>
       <c r="N7">
-        <v>0.04551569506726458</v>
+        <v>0.06218487394957983</v>
       </c>
       <c r="O7">
-        <v>1.06282722513089</v>
+        <v>0.3193096008629989</v>
       </c>
       <c r="P7">
-        <v>20.3</v>
+        <v>2.96</v>
       </c>
       <c r="Q7">
-        <v>0.04551569506726458</v>
+        <v>0.06218487394957983</v>
       </c>
       <c r="R7">
-        <v>1.06282722513089</v>
+        <v>0.3193096008629989</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1237,70 +1258,61 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>34.8</v>
+        <v>1.14</v>
       </c>
       <c r="V7">
-        <v>0.07802690582959641</v>
+        <v>0.02394957983193277</v>
       </c>
       <c r="W7">
-        <v>0.03874239350912779</v>
+        <v>0.07909556313993174</v>
       </c>
       <c r="X7">
-        <v>0.04517244053331057</v>
+        <v>0.04637658761120361</v>
       </c>
       <c r="Y7">
-        <v>-0.006430047024182782</v>
+        <v>0.03271897552872813</v>
       </c>
       <c r="Z7">
-        <v>0.1466274567474889</v>
+        <v>0.05468135902706239</v>
       </c>
       <c r="AA7">
-        <v>0.001205962452888664</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.03978289703564419</v>
+        <v>0.02034285088076586</v>
       </c>
       <c r="AC7">
-        <v>-0.03857693458275553</v>
+        <v>-0.02034285088076586</v>
       </c>
       <c r="AD7">
-        <v>1321.4</v>
+        <v>230.9</v>
       </c>
       <c r="AE7">
-        <v>16.31515689403409</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>1337.715156894034</v>
+        <v>230.9</v>
       </c>
       <c r="AG7">
-        <v>1302.915156894034</v>
+        <v>229.76</v>
       </c>
       <c r="AH7">
-        <v>0.7499600772711852</v>
+        <v>0.8290843806104129</v>
       </c>
       <c r="AI7">
-        <v>0.7466948586766315</v>
+        <v>0.6690814256737178</v>
       </c>
       <c r="AJ7">
-        <v>0.7449847705636742</v>
+        <v>0.8283818863570811</v>
       </c>
       <c r="AK7">
-        <v>0.7416769598536723</v>
+        <v>0.6679846493778346</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
-        <v>-1.22</v>
-      </c>
-      <c r="AN7">
-        <v>225.4948805460751</v>
-      </c>
-      <c r="AP7">
-        <v>222.3404704597328</v>
-      </c>
-      <c r="AQ7">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1311,7 +1323,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Infront ASA (OB:INFRNT)</t>
+          <t>B2Holding ASA (OB:B2H)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1319,116 +1331,107 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="F8">
-        <v>0.193</v>
-      </c>
       <c r="G8">
-        <v>0.09039451114922814</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.06706689536878217</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>-0.02665268675411548</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>-0.02665268675411548</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>-9.26</v>
+        <v>29.4</v>
       </c>
       <c r="L8">
-        <v>-0.1588336192109777</v>
+        <v>0.1196581196581197</v>
       </c>
       <c r="M8">
+        <v>0.101</v>
+      </c>
+      <c r="N8">
+        <v>0.0002845872076641308</v>
+      </c>
+      <c r="O8">
+        <v>0.003435374149659865</v>
+      </c>
+      <c r="P8">
+        <v>0.05</v>
+      </c>
+      <c r="Q8">
+        <v>0.0001408847562693717</v>
+      </c>
+      <c r="R8">
+        <v>0.001700680272108844</v>
+      </c>
+      <c r="S8">
+        <v>0.051</v>
+      </c>
+      <c r="T8">
+        <v>0.504950495049505</v>
+      </c>
+      <c r="U8">
+        <v>43.5</v>
+      </c>
+      <c r="V8">
+        <v>0.1225697379543533</v>
+      </c>
+      <c r="W8">
+        <v>0.06480052898391007</v>
+      </c>
+      <c r="X8">
+        <v>0.0394118216358498</v>
+      </c>
+      <c r="Y8">
+        <v>0.02538870734806028</v>
+      </c>
+      <c r="Z8">
+        <v>0.1484771573604061</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0.0389648442663487</v>
+      </c>
+      <c r="AC8">
+        <v>-0.0389648442663487</v>
+      </c>
+      <c r="AD8">
+        <v>1312.7</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>1312.7</v>
+      </c>
+      <c r="AG8">
+        <v>1269.2</v>
+      </c>
+      <c r="AH8">
+        <v>0.7871791796593908</v>
+      </c>
+      <c r="AI8">
+        <v>0.7184216287215411</v>
+      </c>
+      <c r="AJ8">
+        <v>0.7814789729696447</v>
+      </c>
+      <c r="AK8">
+        <v>0.711554633626731</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>-5.02</v>
+      </c>
+      <c r="AQ8">
         <v>-0</v>
-      </c>
-      <c r="N8">
-        <v>-0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>-0</v>
-      </c>
-      <c r="Q8">
-        <v>-0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>15.1</v>
-      </c>
-      <c r="V8">
-        <v>0.1202229299363057</v>
-      </c>
-      <c r="W8">
-        <v>-0.5231638418079096</v>
-      </c>
-      <c r="X8">
-        <v>0.03356115025769147</v>
-      </c>
-      <c r="Y8">
-        <v>-0.5567249920656011</v>
-      </c>
-      <c r="Z8">
-        <v>8.683014319740581</v>
-      </c>
-      <c r="AA8">
-        <v>-0.2314256607455449</v>
-      </c>
-      <c r="AB8">
-        <v>0.03152037289673244</v>
-      </c>
-      <c r="AC8">
-        <v>-0.2629460336422773</v>
-      </c>
-      <c r="AD8">
-        <v>135.4</v>
-      </c>
-      <c r="AE8">
-        <v>0.9142581888246627</v>
-      </c>
-      <c r="AF8">
-        <v>136.3142581888247</v>
-      </c>
-      <c r="AG8">
-        <v>121.2142581888247</v>
-      </c>
-      <c r="AH8">
-        <v>0.5204537512827965</v>
-      </c>
-      <c r="AI8">
-        <v>0.7802125573603803</v>
-      </c>
-      <c r="AJ8">
-        <v>0.4911152989228442</v>
-      </c>
-      <c r="AK8">
-        <v>0.7594199889425132</v>
-      </c>
-      <c r="AL8">
-        <v>10.9</v>
-      </c>
-      <c r="AM8">
-        <v>7.11</v>
-      </c>
-      <c r="AN8">
-        <v>75.9394279304543</v>
-      </c>
-      <c r="AO8">
-        <v>-0.2128440366972477</v>
-      </c>
-      <c r="AP8">
-        <v>67.98331923097291</v>
-      </c>
-      <c r="AQ8">
-        <v>-0.3263009845288326</v>
       </c>
     </row>
   </sheetData>
